--- a/data/trans_bre/P40_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P40_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.044450090385799</v>
+        <v>1.071596640405117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.580077022030713</v>
+        <v>2.425573619925167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.094747822271056</v>
+        <v>-3.175364693511581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.202293934881613</v>
+        <v>4.06623253729286</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1498890903638591</v>
+        <v>0.1684066178479376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7025646054460732</v>
+        <v>0.6584781111457781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5365516117062081</v>
+        <v>-0.518812174491813</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5003269001159877</v>
+        <v>0.3874845034833457</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.6590462258068</v>
+        <v>7.124445479215854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.426156261609693</v>
+        <v>8.268490560018769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.881595596921679</v>
+        <v>2.645712428176481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.73165692203167</v>
+        <v>15.49801367112522</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.433173280628552</v>
+        <v>2.525790950310665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.494106566432647</v>
+        <v>6.249896984322585</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9309769227623822</v>
+        <v>0.8816056473495311</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15.14097249576639</v>
+        <v>15.73953111964931</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.831014413020485</v>
+        <v>5.059952875536458</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2190976117178401</v>
+        <v>-0.540860162726526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7355338365802027</v>
+        <v>-0.7024142721295603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.178005346595269</v>
+        <v>-3.94050488464479</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7700395878159459</v>
+        <v>0.8118737476672293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03662124559730425</v>
+        <v>-0.07930745014352929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.144944712539099</v>
+        <v>-0.1432859009563452</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4500470736329041</v>
+        <v>-0.4242916899049661</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.30161653216024</v>
+        <v>11.09005140318465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.266581834112833</v>
+        <v>5.776209630582932</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.638203480110901</v>
+        <v>4.645131689905819</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.440143267332288</v>
+        <v>3.442720848698241</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.984182029405915</v>
+        <v>3.036093568310965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.272159083495783</v>
+        <v>1.145075337825546</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.492344309961116</v>
+        <v>1.494972761489993</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6837746430281045</v>
+        <v>0.7794670978498844</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.902913732366199</v>
+        <v>3.798745072976041</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.73515675360295</v>
+        <v>2.854463319078291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9585895881845451</v>
+        <v>-0.4955173082459702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.380258175217098</v>
+        <v>2.173005599474693</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.301012214362047</v>
+        <v>0.2860448634706871</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2351471130612838</v>
+        <v>0.2394078895764562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1110219595288195</v>
+        <v>-0.06336591905395743</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2308386358093992</v>
+        <v>0.2243436452257301</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.91568014653738</v>
+        <v>11.61959633075237</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.4591852241616</v>
+        <v>10.59887842272411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.666675426682309</v>
+        <v>5.630615720356475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.613482951180368</v>
+        <v>8.535190420544362</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.26606337764684</v>
+        <v>1.263502704565221</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.296733004797663</v>
+        <v>1.313856574217092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8903521338075596</v>
+        <v>0.8723616098309008</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.461274847300408</v>
+        <v>1.418120271912916</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.2378197828439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.326751883267841</v>
+        <v>5.326751883267852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.035417071825301</v>
@@ -949,7 +949,7 @@
         <v>0.3312635653966739</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2962496376624444</v>
+        <v>0.2962496376624452</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.210094670611021</v>
+        <v>8.922799072468283</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.526148453073359</v>
+        <v>3.722422684754321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.902729781144228</v>
+        <v>0.9879224657315212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.590219468253902</v>
+        <v>1.182711724141808</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5924637807266171</v>
+        <v>0.5575277834507787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2063974701900462</v>
+        <v>0.2175893158845912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04597933670076554</v>
+        <v>0.05329486638566442</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07736118533159687</v>
+        <v>0.05547787613429046</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.04817131850211</v>
+        <v>19.14718678018485</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.39527838848658</v>
+        <v>13.36264044331837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.968104734528662</v>
+        <v>9.898480284361963</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.450764109524942</v>
+        <v>9.298924141665953</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.739195988897038</v>
+        <v>1.693518407489473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.0251082143126</v>
+        <v>1.020549279404196</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7339782219755063</v>
+        <v>0.7315151533424984</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6001044443231272</v>
+        <v>0.5832271518092744</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.926411979690032</v>
+        <v>3.478374498092113</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.342995606042815</v>
+        <v>4.41543924570987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.477532517296185</v>
+        <v>8.055637138831539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.06775713076262</v>
+        <v>1.352912285566504</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1152420012805143</v>
+        <v>0.101328772998479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1467874682198323</v>
+        <v>0.1449856492498367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3144099580247895</v>
+        <v>0.2882955576514482</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03347026659631985</v>
+        <v>0.04205881766002571</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.94714014038505</v>
+        <v>17.00611689409639</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.85713768272751</v>
+        <v>17.2813920137768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.02842167288648</v>
+        <v>20.47028890859563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.40404017575247</v>
+        <v>10.70042733735253</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.66458190581915</v>
+        <v>0.6608790509130384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6896108018944406</v>
+        <v>0.7084724830738258</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9810255565081133</v>
+        <v>0.975601492243156</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3960109540701275</v>
+        <v>0.4107690763212302</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.96263748927037</v>
+        <v>16.18970957297223</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.123687830687656</v>
+        <v>6.520679283519974</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11.33710554132322</v>
+        <v>10.22881014326112</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.898993506584226</v>
+        <v>8.32592605426996</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3842019416961521</v>
+        <v>0.4185045791161057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.206960323601286</v>
+        <v>0.181558712352706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3175238438902711</v>
+        <v>0.2786969851118687</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.278185206353773</v>
+        <v>0.2492861704052707</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.91708602122349</v>
+        <v>31.70303227932347</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.31219274647638</v>
+        <v>22.2894244923308</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25.64263898236773</v>
+        <v>25.16985160469383</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.37546679324616</v>
+        <v>18.167021557299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9928178873122071</v>
+        <v>1.05126460907803</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7698561841806332</v>
+        <v>0.7519561792770818</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9493329506678836</v>
+        <v>0.9410206855544964</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7021448802734171</v>
+        <v>0.6878910431382967</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>15.99889309423972</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17.03681106352532</v>
+        <v>17.03681106352531</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2031849527856145</v>
@@ -1249,7 +1249,7 @@
         <v>0.3328296346962426</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3696440630240183</v>
+        <v>0.369644063024018</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.325114001500607</v>
+        <v>2.863240421380489</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.222907248243566</v>
+        <v>3.315296990510374</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.758030872449906</v>
+        <v>8.545988126818225</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.67887118058755</v>
+        <v>10.73568438889919</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03825909420881418</v>
+        <v>0.05262712954302485</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03636279735915714</v>
+        <v>0.05588850375090571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1497484916764076</v>
+        <v>0.170595141239204</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2129410859592308</v>
+        <v>0.2174382018445861</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.77261915599255</v>
+        <v>20.21591951868365</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.97591678758102</v>
+        <v>20.19164696795167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.4908806124555</v>
+        <v>23.55761904550673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22.54244591886754</v>
+        <v>22.70882111362791</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4007205927983437</v>
+        <v>0.4223718961101582</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3813307516501647</v>
+        <v>0.4142614077691364</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5452510189222832</v>
+        <v>0.5502812951972847</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5351303504633318</v>
+        <v>0.5530567057256167</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>10.51344914976781</v>
+        <v>10.62654794118976</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.050062082913815</v>
+        <v>8.061638918200755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.2605886481621</v>
+        <v>7.1969612165009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.096458747758574</v>
+        <v>7.057252101929487</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.628174648892467</v>
+        <v>0.628660965549703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4440916586508429</v>
+        <v>0.4550161187463503</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4341340441988724</v>
+        <v>0.4239006580093231</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3621453837001531</v>
+        <v>0.3551544491526558</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.66384889459873</v>
+        <v>14.44960736317985</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.92880293834195</v>
+        <v>11.99914445378493</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.20587493934188</v>
+        <v>11.05235831915748</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.58738828538478</v>
+        <v>10.57631871169433</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9782984068573292</v>
+        <v>0.9553593024602133</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7498946601834197</v>
+        <v>0.7552692932450199</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7606596611604233</v>
+        <v>0.7366231373138036</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6059027123474914</v>
+        <v>0.5955618227893958</v>
       </c>
     </row>
     <row r="28">
